--- a/Data/collapsed database manual cases/zacatecas_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/zacatecas_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/zacatecas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{870B02A3-AE5F-7B40-B4ED-A1B8E98C38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6544392E-1060-4E49-98A4-0B74C021C9FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E284B12-57AA-284E-9ECE-936740177DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20720" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="1073">
   <si>
     <t>uniqueid</t>
   </si>
@@ -3140,6 +3140,108 @@
   </si>
   <si>
     <t>https://trijez.mx/Informacion/sentencias/2007/jne/su-jne-003-2007.pdf</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD</t>
+  </si>
+  <si>
+    <t>YANET MORALES HUIZAR</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>ERIKA YANETH CORREA CORTES</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>SAUL MONREAL AVILA</t>
+  </si>
+  <si>
+    <t>MARIA ORALIA LOPEZ CHAVEZ</t>
+  </si>
+  <si>
+    <t>LUZ ADRIANA LEAÑOS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALMA DELFINA LOPEZ FIGUEROA</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO CARRILLO GOMEZ</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>NOE GUADALUPE ESPARZA MARTINEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO ACEVES SANCHEZ</t>
+  </si>
+  <si>
+    <t>JOSE HUMBERTO SALAZAR CONTRERAS</t>
+  </si>
+  <si>
+    <t>MARICELA HERRERA VAZQUEZ</t>
+  </si>
+  <si>
+    <t>RAFAEL JIMENEZ NUÑEZ</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE SANCHEZ MONTOYA</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO GONZALEZ PERALES</t>
+  </si>
+  <si>
+    <t>MARGARITA ROBLES DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>NORMA CASTAÑEDA ROMERO</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL JIMENEZ FUENTES</t>
+  </si>
+  <si>
+    <t>MANUEL BECERRA DE LA ROSA</t>
+  </si>
+  <si>
+    <t>DANIEL LOPEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>SILVIA DIAZ VARGAS</t>
+  </si>
+  <si>
+    <t>NOE TORRES MALDONADO</t>
+  </si>
+  <si>
+    <t>OMAR BAUDELIO MARIN SANCHEZ</t>
+  </si>
+  <si>
+    <t>ULISES MEJIA HARO</t>
+  </si>
+  <si>
+    <t>JORGE MIRANDA CASTRO</t>
+  </si>
+  <si>
+    <t>ESTELA CARLOS CARLOS</t>
+  </si>
+  <si>
+    <t>https://ieez.org.mx/MJ/acuerdos/sesiones/10012018_2/acuerdos/RCGIEEZ001VII2018_anexos/ANEXO1.pdf</t>
+  </si>
+  <si>
+    <t>https://ieez.org.mx/MJ/acuerdos/sesiones/13012018_2/acuerdos/RCGIEEZ002VII2018_anexos/ANEXO2.pdf</t>
+  </si>
+  <si>
+    <t>https://ieez.org.mx/MJ/acuerdos/sesiones/02012021_2/acuerdos/RCGIEEZ001VII2021_anexos/ANEXO2.pdf</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PRIZac/posts/4137831819602247/</t>
+  </si>
+  <si>
+    <t>https://ieez.org.mx/MJ/acuerdos/sesiones/02012021_2/acuerdos/RCGIEEZ002VII2021_anexos/ANEXO1.pdf</t>
   </si>
 </sst>
 </file>
@@ -3187,7 +3289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3197,6 +3299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,7 +3321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3227,6 +3335,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3532,10 +3641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S404"/>
+  <dimension ref="A1:S444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H417" sqref="H417"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="H443" sqref="H443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22422,6 +22531,806 @@
         <v>43</v>
       </c>
     </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>32004</v>
+      </c>
+      <c r="B405">
+        <v>2021</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F405" t="s">
+        <v>104</v>
+      </c>
+      <c r="H405" t="s">
+        <v>21</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>32005</v>
+      </c>
+      <c r="B406">
+        <v>2021</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F406" t="s">
+        <v>123</v>
+      </c>
+      <c r="H406" t="s">
+        <v>21</v>
+      </c>
+      <c r="I406" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>32012</v>
+      </c>
+      <c r="B407">
+        <v>2021</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H407" t="s">
+        <v>26</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>32015</v>
+      </c>
+      <c r="B408">
+        <v>2021</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H408" t="s">
+        <v>26</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>32018</v>
+      </c>
+      <c r="B409">
+        <v>2021</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H409" t="s">
+        <v>21</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>32019</v>
+      </c>
+      <c r="B410">
+        <v>2021</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H410" t="s">
+        <v>132</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>32020</v>
+      </c>
+      <c r="B411">
+        <v>2021</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H411" t="s">
+        <v>21</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>32022</v>
+      </c>
+      <c r="B412">
+        <v>2021</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F412" t="s">
+        <v>410</v>
+      </c>
+      <c r="H412" t="s">
+        <v>21</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>32023</v>
+      </c>
+      <c r="B413">
+        <v>2021</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H413" t="s">
+        <v>21</v>
+      </c>
+      <c r="I413" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>32025</v>
+      </c>
+      <c r="B414">
+        <v>2021</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H414" t="s">
+        <v>132</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>32028</v>
+      </c>
+      <c r="B415">
+        <v>2021</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F415" t="s">
+        <v>489</v>
+      </c>
+      <c r="H415" t="s">
+        <v>26</v>
+      </c>
+      <c r="I415" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>32033</v>
+      </c>
+      <c r="B416">
+        <v>2021</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H416" t="s">
+        <v>21</v>
+      </c>
+      <c r="I416" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>32039</v>
+      </c>
+      <c r="B417">
+        <v>2021</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F417" t="s">
+        <v>675</v>
+      </c>
+      <c r="H417" t="s">
+        <v>21</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>32044</v>
+      </c>
+      <c r="B418">
+        <v>2021</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F418" t="s">
+        <v>750</v>
+      </c>
+      <c r="H418" t="s">
+        <v>21</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>32048</v>
+      </c>
+      <c r="B419">
+        <v>2021</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F419" t="s">
+        <v>813</v>
+      </c>
+      <c r="H419" t="s">
+        <v>21</v>
+      </c>
+      <c r="I419" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>32049</v>
+      </c>
+      <c r="B420">
+        <v>2021</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F420" t="s">
+        <v>828</v>
+      </c>
+      <c r="H420" t="s">
+        <v>26</v>
+      </c>
+      <c r="I420" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>32053</v>
+      </c>
+      <c r="B421">
+        <v>2021</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F421" t="s">
+        <v>886</v>
+      </c>
+      <c r="H421" t="s">
+        <v>26</v>
+      </c>
+      <c r="I421" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>32055</v>
+      </c>
+      <c r="B422">
+        <v>2021</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F422" t="s">
+        <v>915</v>
+      </c>
+      <c r="H422" t="s">
+        <v>26</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>32058</v>
+      </c>
+      <c r="B423">
+        <v>2021</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H423" t="s">
+        <v>21</v>
+      </c>
+      <c r="I423" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>32010</v>
+      </c>
+      <c r="B424">
+        <v>2021</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H424" t="s">
+        <v>512</v>
+      </c>
+      <c r="I424" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>32029</v>
+      </c>
+      <c r="B425">
+        <v>2021</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H425" t="s">
+        <v>512</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>32034</v>
+      </c>
+      <c r="B426">
+        <v>2021</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F426" t="s">
+        <v>594</v>
+      </c>
+      <c r="H426" t="s">
+        <v>125</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>32036</v>
+      </c>
+      <c r="B427">
+        <v>2021</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H427" t="s">
+        <v>125</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>32043</v>
+      </c>
+      <c r="B428">
+        <v>2021</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H428" t="s">
+        <v>512</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>32050</v>
+      </c>
+      <c r="B429">
+        <v>2021</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F429" t="s">
+        <v>840</v>
+      </c>
+      <c r="H429" t="s">
+        <v>512</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>32051</v>
+      </c>
+      <c r="B430">
+        <v>2021</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H430" t="s">
+        <v>512</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>32056</v>
+      </c>
+      <c r="B431">
+        <v>2021</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H431" t="s">
+        <v>512</v>
+      </c>
+      <c r="I431" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>32002</v>
+      </c>
+      <c r="B432">
+        <v>2024</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H432" t="s">
+        <v>24</v>
+      </c>
+      <c r="I432" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>32004</v>
+      </c>
+      <c r="B433">
+        <v>2024</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H433" t="s">
+        <v>21</v>
+      </c>
+      <c r="I433" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>32005</v>
+      </c>
+      <c r="B434">
+        <v>2024</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F434" t="s">
+        <v>109</v>
+      </c>
+      <c r="H434" t="s">
+        <v>21</v>
+      </c>
+      <c r="I434" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>32032</v>
+      </c>
+      <c r="B435">
+        <v>2024</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H435" t="s">
+        <v>21</v>
+      </c>
+      <c r="I435" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>32035</v>
+      </c>
+      <c r="B436">
+        <v>2024</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H436" t="s">
+        <v>24</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>32037</v>
+      </c>
+      <c r="B437">
+        <v>2024</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F437" t="s">
+        <v>639</v>
+      </c>
+      <c r="H437" t="s">
+        <v>24</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>32054</v>
+      </c>
+      <c r="B438">
+        <v>2024</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H438" t="s">
+        <v>24</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>32019</v>
+      </c>
+      <c r="B439">
+        <v>2024</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F439" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H439" t="s">
+        <v>512</v>
+      </c>
+      <c r="I439" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>32020</v>
+      </c>
+      <c r="B440">
+        <v>2024</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H440" t="s">
+        <v>512</v>
+      </c>
+      <c r="I440" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>32021</v>
+      </c>
+      <c r="B441">
+        <v>2024</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H441" t="s">
+        <v>60</v>
+      </c>
+      <c r="I441" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>32034</v>
+      </c>
+      <c r="B442">
+        <v>2024</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H442" t="s">
+        <v>125</v>
+      </c>
+      <c r="I442" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>32036</v>
+      </c>
+      <c r="B443">
+        <v>2024</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H443" t="s">
+        <v>125</v>
+      </c>
+      <c r="I443" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>32056</v>
+      </c>
+      <c r="B444">
+        <v>2024</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H444" t="s">
+        <v>512</v>
+      </c>
+      <c r="I444" t="s">
+        <v>1072</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S404" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
@@ -22429,6 +23338,9 @@
         <filter val="ARTURO MARQUEZ SALAS"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A382:S444">
+      <sortCondition ref="B1:B444"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
